--- a/m-ward.xlsx
+++ b/m-ward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MS learn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892BAC45-E3BD-48D4-8CF3-E7A530B0C951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0EBBF4-7338-4CAD-A218-2664C64CACCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23234" windowHeight="12464" xr2:uid="{FCDD6EA9-C078-4D96-8EC1-037334E59081}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Place</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Longitude</t>
-  </si>
-  <si>
-    <t>Anushakti nagar</t>
   </si>
   <si>
     <t>Worli</t>
@@ -422,7 +419,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -440,7 +437,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3">
         <v>28.6448</v>
@@ -454,7 +451,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>19.047771949583801</v>
@@ -468,7 +465,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>22.572645000000001</v>
@@ -482,7 +479,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>13.067439</v>
@@ -496,7 +493,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>12.972441999999999</v>
@@ -507,17 +504,6 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>23.033863</v>
-      </c>
-      <c r="C7">
-        <v>72.585021999999995</v>
-      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>

--- a/m-ward.xlsx
+++ b/m-ward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MS learn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0EBBF4-7338-4CAD-A218-2664C64CACCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3C2212-0FB7-40A4-9A8E-CABE747125F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23234" windowHeight="12464" xr2:uid="{FCDD6EA9-C078-4D96-8EC1-037334E59081}"/>
+    <workbookView xWindow="0" yWindow="605" windowWidth="23234" windowHeight="12464" xr2:uid="{FCDD6EA9-C078-4D96-8EC1-037334E59081}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Place</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Chembur</t>
+  </si>
+  <si>
+    <t>Anushakti</t>
   </si>
 </sst>
 </file>
@@ -419,7 +422,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -505,6 +508,17 @@
       <c r="G6" s="1"/>
       <c r="J6" s="1"/>
     </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>17.385000000000002</v>
+      </c>
+      <c r="C7">
+        <v>78.486699999999999</v>
+      </c>
+    </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
     </row>
